--- a/biology/Zoologie/Cethosia_cyane/Cethosia_cyane.xlsx
+++ b/biology/Zoologie/Cethosia_cyane/Cethosia_cyane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cethosia cyane ou Chrysope léopard[1] est une espèce de lépidoptères (papillons) de la famille des Nymphalidae du genre Cethosia.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cethosia cyane ou Chrysope léopard est une espèce de lépidoptères (papillons) de la famille des Nymphalidae du genre Cethosia.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cethosia cyane vit dans les forêts subtropicales de moyenne altitude de l'Asie du Sud en passant par l'Asie du Sud-Est jusqu'au sud de la Chine.
 </t>
@@ -544,7 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imago
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le papillon Chrysope léopard a une envergure de 9 à 9,5 cm.
 	Chrysope léopard au temple d'Angkor Vat, Cambodge
 			Face dorsale
@@ -552,9 +572,43 @@
 			Posé, ailes repliées
 Le dessus de l'aile antérieure a une large bordure noire avec des lunules en forme de "V" blanches, un apex noir avec une bande irrégulière blanche et une plage de bordure chamois touchant la bordure inférieur ; le dessus de l'aile postérieure a un fond chamois avec des taches noires et une large bordure noire avec des lunules en forme de "V" blanches.
 Ce papillon est principalement actif le matin, volant de fleurs en fleurs pour y butiner le nectar.
-Chenille
-Plantes hôtes
-La chenille mange des feuilles de lianes appartenant à la famille des Passifloraceae : Adenia cordifolia, Adenia heterophylla, Adenia macrophylla, Passiflora cochinchinensis, Passiflora edulis ou Grenadile, Passiflora foetida etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cethosia_cyane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cethosia_cyane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille mange des feuilles de lianes appartenant à la famille des Passifloraceae : Adenia cordifolia, Adenia heterophylla, Adenia macrophylla, Passiflora cochinchinensis, Passiflora edulis ou Grenadile, Passiflora foetida etc.
 </t>
         </is>
       </c>
